--- a/examples/create_scenario_with_grid/scenario_with_grid/electricity.xlsx
+++ b/examples/create_scenario_with_grid/scenario_with_grid/electricity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge23nur\Documents\Python Scripts\HAMLET-gitlab\examples\create_scenario_with_grid\scenario_with_grid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chujiahe/PycharmProjects/HAMLET/examples/create_scenario_with_grid/scenario_with_grid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907BCAE1-AD80-4A6C-B92E-E723138A7727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F72DFFF-BE5C-664B-AE9B-5230E5C56C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="21060" windowHeight="17385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="21060" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" r:id="rId1"/>
@@ -1512,9 +1512,6 @@
     <t>plant_type:heat-storage,owner:3,power:0.0228,capacity:0.0304,efficiency:0.99,soc:0.5</t>
   </si>
   <si>
-    <t>example_grid</t>
-  </si>
-  <si>
     <t>agent_type:sfh,dummy:False,demand:2.455,file:hh_2455_0.csv,file_add:NaN,cos_phi:1.0,load_type:inflexible-load</t>
   </si>
   <si>
@@ -1564,6 +1561,9 @@
   </si>
   <si>
     <t>agent_type:sfh,owner:0,demand:3.564,file_add:heat_3564_0.csv,file:NaN,load_type:heat,temperature:55</t>
+  </si>
+  <si>
+    <t>scenario_with_grid</t>
   </si>
 </sst>
 </file>
@@ -1643,7 +1643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1651,10 +1651,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1959,16 +1955,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2003,7 +1999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>22401</v>
       </c>
@@ -2017,7 +2013,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -2026,7 +2022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>22402</v>
       </c>
@@ -2040,7 +2036,7 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -2049,7 +2045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>22548</v>
       </c>
@@ -2063,7 +2059,7 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -2072,7 +2068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>22549</v>
       </c>
@@ -2086,7 +2082,7 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -2095,7 +2091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>29590</v>
       </c>
@@ -2109,7 +2105,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -2118,7 +2114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>15385</v>
       </c>
@@ -2132,7 +2128,7 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -2144,7 +2140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>19999</v>
       </c>
@@ -2158,7 +2154,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -2170,7 +2166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>19880</v>
       </c>
@@ -2184,7 +2180,7 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -2196,7 +2192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>22572</v>
       </c>
@@ -2210,7 +2206,7 @@
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -2219,7 +2215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>23736</v>
       </c>
@@ -2233,7 +2229,7 @@
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -2242,7 +2238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>21819</v>
       </c>
@@ -2256,7 +2252,7 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -2265,7 +2261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>25805</v>
       </c>
@@ -2279,7 +2275,7 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -2288,7 +2284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>22097</v>
       </c>
@@ -2302,7 +2298,7 @@
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -2311,7 +2307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>17618</v>
       </c>
@@ -2325,7 +2321,7 @@
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -2337,7 +2333,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>22102</v>
       </c>
@@ -2351,7 +2347,7 @@
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -2360,7 +2356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>13674</v>
       </c>
@@ -2374,7 +2370,7 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -2386,7 +2382,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>18541</v>
       </c>
@@ -2400,7 +2396,7 @@
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -2412,7 +2408,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>33266</v>
       </c>
@@ -2426,7 +2422,7 @@
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -2435,7 +2431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>29044</v>
       </c>
@@ -2449,7 +2445,7 @@
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -2458,7 +2454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>25593</v>
       </c>
@@ -2472,7 +2468,7 @@
         <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -2481,7 +2477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>25594</v>
       </c>
@@ -2495,7 +2491,7 @@
         <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -2515,9 +2511,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
@@ -2552,7 +2548,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>172</v>
       </c>
@@ -2578,7 +2574,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>100</v>
       </c>
@@ -2616,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>173</v>
       </c>
@@ -2654,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>174</v>
       </c>
@@ -2692,7 +2688,7 @@
         <v>671.99999094009399</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>175</v>
       </c>
@@ -2730,7 +2726,7 @@
         <v>587.99999952316284</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>176</v>
       </c>
@@ -2756,7 +2752,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>177</v>
       </c>
@@ -2782,7 +2778,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>178</v>
       </c>
@@ -2820,7 +2816,7 @@
         <v>367.59999394416809</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>111</v>
       </c>
@@ -2858,7 +2854,7 @@
         <v>349.20001029968262</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>179</v>
       </c>
@@ -2896,7 +2892,7 @@
         <v>575.99997520446777</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>180</v>
       </c>
@@ -2922,7 +2918,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>181</v>
       </c>
@@ -2960,7 +2956,7 @@
         <v>504.00000810623169</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>182</v>
       </c>
@@ -2998,7 +2994,7 @@
         <v>643.19998025894165</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>183</v>
       </c>
@@ -3036,7 +3032,7 @@
         <v>514.59997892379761</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>117</v>
       </c>
@@ -3074,7 +3070,7 @@
         <v>385.89999079704279</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>104</v>
       </c>
@@ -3112,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>184</v>
       </c>
@@ -3138,7 +3134,7 @@
         <v>3.9300000000000003E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>185</v>
       </c>
@@ -3164,7 +3160,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>186</v>
       </c>
@@ -3190,7 +3186,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>93</v>
       </c>
@@ -3228,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>187</v>
       </c>
@@ -3266,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>188</v>
       </c>
@@ -3292,7 +3288,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>189</v>
       </c>
@@ -3330,7 +3326,7 @@
         <v>253.60000133514399</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>190</v>
       </c>
@@ -3368,7 +3364,7 @@
         <v>569.70000267028809</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>191</v>
       </c>
@@ -3406,7 +3402,7 @@
         <v>441.10000133514399</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>192</v>
       </c>
@@ -3444,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>193</v>
       </c>
@@ -3482,7 +3478,7 @@
         <v>479.99998927116388</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>194</v>
       </c>
@@ -3520,7 +3516,7 @@
         <v>575.99997520446777</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>195</v>
       </c>
@@ -3546,7 +3542,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>108</v>
       </c>
@@ -3584,7 +3580,7 @@
         <v>312.40001320838928</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>196</v>
       </c>
@@ -3622,7 +3618,7 @@
         <v>477.80001163482672</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>197</v>
       </c>
@@ -3660,7 +3656,7 @@
         <v>303.20000648498541</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>198</v>
       </c>
@@ -3698,7 +3694,7 @@
         <v>303.20000648498541</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>199</v>
       </c>
@@ -3736,7 +3732,7 @@
         <v>284.9000096321106</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>200</v>
       </c>
@@ -3762,7 +3758,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>201</v>
       </c>
@@ -3800,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>202</v>
       </c>
@@ -3826,7 +3822,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>203</v>
       </c>
@@ -3852,7 +3848,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>204</v>
       </c>
@@ -3878,7 +3874,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>205</v>
       </c>
@@ -3904,7 +3900,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>206</v>
       </c>
@@ -3942,7 +3938,7 @@
         <v>314.30000066757202</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>207</v>
       </c>
@@ -3968,7 +3964,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>208</v>
       </c>
@@ -4006,7 +4002,7 @@
         <v>695.99997997283936</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>99</v>
       </c>
@@ -4044,7 +4040,7 @@
         <v>477.80001163482672</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>209</v>
       </c>
@@ -4070,7 +4066,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>210</v>
       </c>
@@ -4108,7 +4104,7 @@
         <v>328.00000905990601</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>211</v>
       </c>
@@ -4134,7 +4130,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>212</v>
       </c>
@@ -4172,7 +4168,7 @@
         <v>215.00000357627869</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>213</v>
       </c>
@@ -4210,7 +4206,7 @@
         <v>234.30000245571139</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>94</v>
       </c>
@@ -4248,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>214</v>
       </c>
@@ -4274,7 +4270,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>215</v>
       </c>
@@ -4312,7 +4308,7 @@
         <v>346.39999270439148</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>216</v>
       </c>
@@ -4350,7 +4346,7 @@
         <v>275.70000290870672</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>217</v>
       </c>
@@ -4388,7 +4384,7 @@
         <v>441.10000133514399</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>218</v>
       </c>
@@ -4414,7 +4410,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>219</v>
       </c>
@@ -4440,7 +4436,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>220</v>
       </c>
@@ -4466,7 +4462,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>221</v>
       </c>
@@ -4504,7 +4500,7 @@
         <v>606.50002956390381</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>222</v>
       </c>
@@ -4542,7 +4538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>223</v>
       </c>
@@ -4580,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>224</v>
       </c>
@@ -4606,7 +4602,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>225</v>
       </c>
@@ -4632,7 +4628,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>226</v>
       </c>
@@ -4670,7 +4666,7 @@
         <v>496.19999527931208</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>227</v>
       </c>
@@ -4708,7 +4704,7 @@
         <v>479.99998927116388</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>228</v>
       </c>
@@ -4746,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>229</v>
       </c>
@@ -4784,7 +4780,7 @@
         <v>238.9000058174133</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>230</v>
       </c>
@@ -4822,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>231</v>
       </c>
@@ -4848,7 +4844,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>232</v>
       </c>
@@ -4886,7 +4882,7 @@
         <v>312.40001320838928</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>233</v>
       </c>
@@ -4924,7 +4920,7 @@
         <v>643.19998025894165</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>234</v>
       </c>
@@ -4950,7 +4946,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>235</v>
       </c>
@@ -4976,7 +4972,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>236</v>
       </c>
@@ -5002,7 +4998,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>237</v>
       </c>
@@ -5040,7 +5036,7 @@
         <v>588.10001611709595</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>238</v>
       </c>
@@ -5078,7 +5074,7 @@
         <v>366.60000681877142</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>239</v>
       </c>
@@ -5104,7 +5100,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>91</v>
       </c>
@@ -5142,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>240</v>
       </c>
@@ -5180,7 +5176,7 @@
         <v>588.10001611709595</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>241</v>
       </c>
@@ -5218,7 +5214,7 @@
         <v>768.00000667572021</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>242</v>
       </c>
@@ -5256,7 +5252,7 @@
         <v>587.99999952316284</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>243</v>
       </c>
@@ -5294,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>244</v>
       </c>
@@ -5332,7 +5328,7 @@
         <v>695.99997997283936</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>245</v>
       </c>
@@ -5358,7 +5354,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
@@ -5396,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>246</v>
       </c>
@@ -5422,7 +5418,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>247</v>
       </c>
@@ -5448,7 +5444,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>248</v>
       </c>
@@ -5474,7 +5470,7 @@
         <v>3.9300000000000003E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>249</v>
       </c>
@@ -5500,7 +5496,7 @@
         <v>3.9300000000000003E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>250</v>
       </c>
@@ -5526,7 +5522,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>251</v>
       </c>
@@ -5552,7 +5548,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>119</v>
       </c>
@@ -5590,7 +5586,7 @@
         <v>385.89999079704279</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>252</v>
       </c>
@@ -5616,7 +5612,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>253</v>
       </c>
@@ -5654,7 +5650,7 @@
         <v>385.89999079704279</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>254</v>
       </c>
@@ -5680,7 +5676,7 @@
         <v>3.9300000000000003E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>255</v>
       </c>
@@ -5718,7 +5714,7 @@
         <v>248.0999976396561</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>256</v>
       </c>
@@ -5756,7 +5752,7 @@
         <v>248.0999976396561</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>257</v>
       </c>
@@ -5794,7 +5790,7 @@
         <v>211.3000005483627</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>258</v>
       </c>
@@ -5832,7 +5828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>259</v>
       </c>
@@ -5858,7 +5854,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
@@ -5896,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>260</v>
       </c>
@@ -5934,7 +5930,7 @@
         <v>321.59999012947083</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>261</v>
       </c>
@@ -5972,7 +5968,7 @@
         <v>422.69998788833618</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>262</v>
       </c>
@@ -6010,7 +6006,7 @@
         <v>504.00000810623169</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>263</v>
       </c>
@@ -6048,7 +6044,7 @@
         <v>314.30000066757202</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>264</v>
       </c>
@@ -6074,7 +6070,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>265</v>
       </c>
@@ -6100,7 +6096,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>266</v>
       </c>
@@ -6126,7 +6122,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>267</v>
       </c>
@@ -6164,7 +6160,7 @@
         <v>374.00001287460333</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>268</v>
       </c>
@@ -6190,7 +6186,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>269</v>
       </c>
@@ -6228,7 +6224,7 @@
         <v>808.60000848770142</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>270</v>
       </c>
@@ -6266,7 +6262,7 @@
         <v>4.0000001899898052</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
@@ -6304,7 +6300,7 @@
         <v>404.30000424385071</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>271</v>
       </c>
@@ -6342,7 +6338,7 @@
         <v>407.99999237060553</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>96</v>
       </c>
@@ -6380,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>272</v>
       </c>
@@ -6406,7 +6402,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>273</v>
       </c>
@@ -6444,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>274</v>
       </c>
@@ -6470,7 +6466,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>275</v>
       </c>
@@ -6508,7 +6504,7 @@
         <v>354.00000214576721</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>276</v>
       </c>
@@ -6546,7 +6542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>277</v>
       </c>
@@ -6572,7 +6568,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>278</v>
       </c>
@@ -6598,7 +6594,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>279</v>
       </c>
@@ -6624,7 +6620,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>280</v>
       </c>
@@ -6662,7 +6658,7 @@
         <v>349.20001029968262</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>122</v>
       </c>
@@ -6700,7 +6696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>281</v>
       </c>
@@ -6726,7 +6722,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>282</v>
       </c>
@@ -6764,7 +6760,7 @@
         <v>671.99999094009399</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>283</v>
       </c>
@@ -6790,7 +6786,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>284</v>
       </c>
@@ -6828,7 +6824,7 @@
         <v>588.10001611709595</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>285</v>
       </c>
@@ -6854,7 +6850,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>286</v>
       </c>
@@ -6892,7 +6888,7 @@
         <v>575.99997520446777</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>287</v>
       </c>
@@ -6930,7 +6926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>288</v>
       </c>
@@ -6968,7 +6964,7 @@
         <v>575.99997520446777</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>289</v>
       </c>
@@ -7006,7 +7002,7 @@
         <v>589.9999737739563</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>290</v>
       </c>
@@ -7032,7 +7028,7 @@
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>291</v>
       </c>
@@ -7070,7 +7066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>292</v>
       </c>
@@ -7108,7 +7104,7 @@
         <v>238.9000058174133</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>293</v>
       </c>
@@ -7157,9 +7153,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
@@ -7224,7 +7220,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>295</v>
       </c>
@@ -7271,7 +7267,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>297</v>
       </c>
@@ -7318,7 +7314,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>298</v>
       </c>
@@ -7365,7 +7361,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>299</v>
       </c>
@@ -7412,7 +7408,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>300</v>
       </c>
@@ -7459,7 +7455,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>301</v>
       </c>
@@ -7506,7 +7502,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>302</v>
       </c>
@@ -7553,7 +7549,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>303</v>
       </c>
@@ -7600,7 +7596,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>304</v>
       </c>
@@ -7647,7 +7643,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>305</v>
       </c>
@@ -7694,7 +7690,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>306</v>
       </c>
@@ -7741,7 +7737,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>307</v>
       </c>
@@ -7788,7 +7784,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>308</v>
       </c>
@@ -7835,7 +7831,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>309</v>
       </c>
@@ -7882,7 +7878,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>310</v>
       </c>
@@ -7929,7 +7925,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>311</v>
       </c>
@@ -7976,7 +7972,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>312</v>
       </c>
@@ -8023,7 +8019,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>313</v>
       </c>
@@ -8070,7 +8066,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>314</v>
       </c>
@@ -8117,7 +8113,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>315</v>
       </c>
@@ -8164,7 +8160,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>316</v>
       </c>
@@ -8211,7 +8207,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>317</v>
       </c>
@@ -8258,7 +8254,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>318</v>
       </c>
@@ -8305,7 +8301,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>319</v>
       </c>
@@ -8352,7 +8348,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>320</v>
       </c>
@@ -8399,7 +8395,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>321</v>
       </c>
@@ -8452,7 +8448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>324</v>
       </c>
@@ -8499,7 +8495,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>325</v>
       </c>
@@ -8546,7 +8542,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>326</v>
       </c>
@@ -8593,7 +8589,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>327</v>
       </c>
@@ -8640,7 +8636,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>328</v>
       </c>
@@ -8687,7 +8683,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>329</v>
       </c>
@@ -8734,7 +8730,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>330</v>
       </c>
@@ -8781,7 +8777,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>331</v>
       </c>
@@ -8828,7 +8824,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>332</v>
       </c>
@@ -8875,7 +8871,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>333</v>
       </c>
@@ -8922,7 +8918,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>334</v>
       </c>
@@ -8969,7 +8965,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>335</v>
       </c>
@@ -9016,7 +9012,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>336</v>
       </c>
@@ -9063,7 +9059,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>337</v>
       </c>
@@ -9110,7 +9106,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>338</v>
       </c>
@@ -9157,7 +9153,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>339</v>
       </c>
@@ -9204,7 +9200,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>340</v>
       </c>
@@ -9251,7 +9247,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>341</v>
       </c>
@@ -9298,7 +9294,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>342</v>
       </c>
@@ -9345,7 +9341,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>343</v>
       </c>
@@ -9392,7 +9388,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>344</v>
       </c>
@@ -9439,7 +9435,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>345</v>
       </c>
@@ -9486,7 +9482,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>346</v>
       </c>
@@ -9539,7 +9535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>347</v>
       </c>
@@ -9586,7 +9582,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>348</v>
       </c>
@@ -9633,7 +9629,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>349</v>
       </c>
@@ -9680,7 +9676,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>350</v>
       </c>
@@ -9727,7 +9723,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>351</v>
       </c>
@@ -9774,7 +9770,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>352</v>
       </c>
@@ -9821,7 +9817,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>354</v>
       </c>
@@ -9868,7 +9864,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>355</v>
       </c>
@@ -9915,7 +9911,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>356</v>
       </c>
@@ -9962,7 +9958,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>357</v>
       </c>
@@ -10015,7 +10011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>359</v>
       </c>
@@ -10062,7 +10058,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>360</v>
       </c>
@@ -10109,7 +10105,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>361</v>
       </c>
@@ -10156,7 +10152,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>362</v>
       </c>
@@ -10209,7 +10205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>364</v>
       </c>
@@ -10256,7 +10252,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>366</v>
       </c>
@@ -10303,7 +10299,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>367</v>
       </c>
@@ -10356,7 +10352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>368</v>
       </c>
@@ -10403,7 +10399,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>369</v>
       </c>
@@ -10450,7 +10446,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>370</v>
       </c>
@@ -10503,7 +10499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>371</v>
       </c>
@@ -10550,7 +10546,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>372</v>
       </c>
@@ -10597,7 +10593,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>373</v>
       </c>
@@ -10644,7 +10640,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>374</v>
       </c>
@@ -10691,7 +10687,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>375</v>
       </c>
@@ -10738,7 +10734,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>376</v>
       </c>
@@ -10785,7 +10781,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>377</v>
       </c>
@@ -10832,7 +10828,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>378</v>
       </c>
@@ -10879,7 +10875,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>379</v>
       </c>
@@ -10926,7 +10922,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>148</v>
       </c>
@@ -10973,7 +10969,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>380</v>
       </c>
@@ -11020,7 +11016,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>381</v>
       </c>
@@ -11073,7 +11069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>382</v>
       </c>
@@ -11120,7 +11116,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>383</v>
       </c>
@@ -11167,7 +11163,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>384</v>
       </c>
@@ -11220,7 +11216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>385</v>
       </c>
@@ -11267,7 +11263,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>386</v>
       </c>
@@ -11314,7 +11310,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>387</v>
       </c>
@@ -11361,7 +11357,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>388</v>
       </c>
@@ -11408,7 +11404,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>389</v>
       </c>
@@ -11455,7 +11451,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>390</v>
       </c>
@@ -11502,7 +11498,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>391</v>
       </c>
@@ -11549,7 +11545,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>392</v>
       </c>
@@ -11596,7 +11592,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>393</v>
       </c>
@@ -11643,7 +11639,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>394</v>
       </c>
@@ -11690,7 +11686,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>395</v>
       </c>
@@ -11737,7 +11733,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>396</v>
       </c>
@@ -11790,7 +11786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>397</v>
       </c>
@@ -11837,7 +11833,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>398</v>
       </c>
@@ -11884,7 +11880,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>399</v>
       </c>
@@ -11931,7 +11927,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>400</v>
       </c>
@@ -11978,7 +11974,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>401</v>
       </c>
@@ -12025,7 +12021,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>402</v>
       </c>
@@ -12072,7 +12068,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>403</v>
       </c>
@@ -12119,7 +12115,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>404</v>
       </c>
@@ -12166,7 +12162,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>405</v>
       </c>
@@ -12213,7 +12209,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>406</v>
       </c>
@@ -12266,7 +12262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>407</v>
       </c>
@@ -12313,7 +12309,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>408</v>
       </c>
@@ -12360,7 +12356,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>409</v>
       </c>
@@ -12407,7 +12403,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>410</v>
       </c>
@@ -12454,7 +12450,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>411</v>
       </c>
@@ -12501,7 +12497,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>412</v>
       </c>
@@ -12548,7 +12544,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>413</v>
       </c>
@@ -12595,7 +12591,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>414</v>
       </c>
@@ -12642,7 +12638,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>415</v>
       </c>
@@ -12689,7 +12685,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>416</v>
       </c>
@@ -12736,7 +12732,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>417</v>
       </c>
@@ -12783,7 +12779,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>418</v>
       </c>
@@ -12830,7 +12826,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>419</v>
       </c>
@@ -12877,7 +12873,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>420</v>
       </c>
@@ -12924,7 +12920,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>421</v>
       </c>
@@ -12971,7 +12967,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>422</v>
       </c>
@@ -13018,7 +13014,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>423</v>
       </c>
@@ -13065,7 +13061,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>424</v>
       </c>
@@ -13112,7 +13108,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>425</v>
       </c>
@@ -13165,7 +13161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>426</v>
       </c>
@@ -13212,7 +13208,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>427</v>
       </c>
@@ -13259,7 +13255,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>428</v>
       </c>
@@ -13306,7 +13302,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>429</v>
       </c>
@@ -13353,7 +13349,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>430</v>
       </c>
@@ -13400,7 +13396,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>431</v>
       </c>
@@ -13447,7 +13443,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>432</v>
       </c>
@@ -13494,7 +13490,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>433</v>
       </c>
@@ -13541,7 +13537,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>434</v>
       </c>
@@ -13588,7 +13584,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>435</v>
       </c>
@@ -13635,7 +13631,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>436</v>
       </c>
@@ -13682,7 +13678,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>437</v>
       </c>
@@ -13729,7 +13725,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>438</v>
       </c>
@@ -13782,7 +13778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>439</v>
       </c>
@@ -13835,7 +13831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>440</v>
       </c>
@@ -13882,7 +13878,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>441</v>
       </c>
@@ -13929,7 +13925,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>442</v>
       </c>
@@ -13976,7 +13972,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>443</v>
       </c>
@@ -14023,7 +14019,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>444</v>
       </c>
@@ -14070,7 +14066,7 @@
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>445</v>
       </c>
@@ -14134,9 +14130,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>446</v>
       </c>
@@ -14204,7 +14200,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>458</v>
       </c>
@@ -14275,7 +14271,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>460</v>
       </c>
@@ -14357,9 +14353,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
@@ -14370,7 +14366,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -14384,7 +14380,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -14398,7 +14394,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -14412,7 +14408,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -14426,7 +14422,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -14440,7 +14436,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -14454,7 +14450,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -14468,7 +14464,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -14482,7 +14478,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -14496,7 +14492,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -14510,7 +14506,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -14524,7 +14520,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -14538,7 +14534,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -14552,7 +14548,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -14566,7 +14562,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -14580,7 +14576,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -14594,7 +14590,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -14608,7 +14604,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -14622,7 +14618,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -14636,7 +14632,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -14650,7 +14646,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -14664,7 +14660,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -14678,7 +14674,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -14692,7 +14688,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -14706,7 +14702,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -14720,7 +14716,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -14734,7 +14730,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -14748,7 +14744,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -14762,7 +14758,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -14776,7 +14772,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -14790,7 +14786,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -14804,7 +14800,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -14818,7 +14814,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -14832,7 +14828,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -14846,7 +14842,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -14860,7 +14856,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -14874,7 +14870,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -14888,7 +14884,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -14902,7 +14898,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -14916,7 +14912,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -14930,7 +14926,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -14944,7 +14940,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -14958,7 +14954,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -14972,7 +14968,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -14986,7 +14982,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -15000,7 +14996,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -15014,7 +15010,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -15028,7 +15024,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -15042,7 +15038,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -15056,7 +15052,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -15070,7 +15066,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -15084,7 +15080,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -15098,7 +15094,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -15112,7 +15108,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -15126,7 +15122,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -15140,7 +15136,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -15154,7 +15150,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -15168,7 +15164,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -15182,7 +15178,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -15196,7 +15192,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -15210,7 +15206,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -15224,7 +15220,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -15238,7 +15234,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -15252,7 +15248,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -15266,7 +15262,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -15280,7 +15276,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -15294,7 +15290,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -15308,7 +15304,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -15322,7 +15318,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -15336,7 +15332,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -15350,7 +15346,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -15364,7 +15360,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -15378,7 +15374,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -15392,7 +15388,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -15406,7 +15402,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -15420,7 +15416,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -15434,7 +15430,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -15448,7 +15444,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -15462,7 +15458,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -15476,7 +15472,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -15490,7 +15486,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -15504,7 +15500,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -15518,7 +15514,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -15532,7 +15528,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -15546,7 +15542,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -15560,7 +15556,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -15574,7 +15570,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -15588,7 +15584,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -15602,7 +15598,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -15616,7 +15612,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -15630,7 +15626,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -15644,7 +15640,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -15658,7 +15654,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -15672,7 +15668,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -15686,7 +15682,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -15700,7 +15696,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -15714,7 +15710,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -15728,7 +15724,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -15742,7 +15738,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -15756,7 +15752,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -15770,7 +15766,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -15784,7 +15780,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -15798,7 +15794,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -15812,7 +15808,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -15826,7 +15822,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -15840,7 +15836,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -15854,7 +15850,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -15868,7 +15864,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -15882,7 +15878,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -15896,7 +15892,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -15910,7 +15906,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -15924,7 +15920,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -15938,7 +15934,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -15952,7 +15948,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -15966,7 +15962,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -15980,7 +15976,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -16005,9 +16001,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>477</v>
       </c>
@@ -16021,7 +16017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -16047,13 +16043,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -16097,7 +16093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -16126,10 +16122,10 @@
         <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -16158,10 +16154,10 @@
         <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -16190,10 +16186,10 @@
         <v>48</v>
       </c>
       <c r="L4" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -16222,10 +16218,10 @@
         <v>48</v>
       </c>
       <c r="L5" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -16254,10 +16250,10 @@
         <v>48</v>
       </c>
       <c r="L6" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -16286,10 +16282,10 @@
         <v>48</v>
       </c>
       <c r="L7" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -16318,10 +16314,10 @@
         <v>48</v>
       </c>
       <c r="L8" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>19</v>
       </c>
@@ -16350,10 +16346,10 @@
         <v>48</v>
       </c>
       <c r="L9" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>21</v>
       </c>
@@ -16382,10 +16378,10 @@
         <v>48</v>
       </c>
       <c r="L10" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>27</v>
       </c>
@@ -16414,10 +16410,10 @@
         <v>48</v>
       </c>
       <c r="L11" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>32</v>
       </c>
@@ -16446,7 +16442,7 @@
         <v>48</v>
       </c>
       <c r="L12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -16462,9 +16458,9 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -16496,7 +16492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -16522,10 +16518,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -16551,10 +16547,10 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -16583,7 +16579,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -16612,7 +16608,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -16638,10 +16634,10 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>7</v>
       </c>
@@ -16670,7 +16666,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -16699,7 +16695,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>18</v>
       </c>
@@ -16725,10 +16721,10 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>24</v>
       </c>
@@ -16754,10 +16750,10 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>25</v>
       </c>
@@ -16783,10 +16779,10 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>27</v>
       </c>
@@ -16826,9 +16822,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
@@ -16854,7 +16850,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1258</v>
       </c>
@@ -16877,7 +16873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2457</v>
       </c>
@@ -16911,12 +16907,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16963,7 +16959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -17010,7 +17006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -17040,15 +17036,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:X89"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G22" sqref="G22:M89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17119,1895 +17115,1283 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>12841</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2">
         <v>22548</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2">
         <v>22549</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2">
         <v>5.2999999374151001E-2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2">
         <v>1.201200008392334</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2">
         <v>0.33500000834464999</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2">
         <v>11.250000447034839</v>
       </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>0.31000000238418601</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2">
         <v>1</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" t="s">
         <v>90</v>
       </c>
-      <c r="O2" s="4" t="b">
+      <c r="O2" t="b">
         <v>1</v>
       </c>
-      <c r="P2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>0</v>
-      </c>
-      <c r="R2" s="4">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>4.0299999527629998E-3</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2">
         <v>90</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2">
         <v>12841</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>12865</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3">
         <v>22549</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3">
         <v>22097</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
         <v>8.6000002920627996E-2</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3">
         <v>0.412999987602234</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3">
         <v>0.28999999165535001</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3">
         <v>12.600000016391281</v>
       </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>0.31000000238418601</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3">
         <v>1</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" t="s">
         <v>90</v>
       </c>
-      <c r="O3" s="4" t="b">
+      <c r="O3" t="b">
         <v>1</v>
       </c>
-      <c r="P3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
         <v>4.0299999527629998E-3</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3">
         <v>90</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3">
         <v>12865</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" t="s">
         <v>13</v>
       </c>
-      <c r="X3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>12894</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4">
         <v>22572</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4">
         <v>22102</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4">
         <v>3.7000000476836999E-2</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4">
         <v>0.59390002489089999</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4">
         <v>12.19999976456165</v>
       </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>0.31000000238418601</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4">
         <v>1</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" t="s">
         <v>90</v>
       </c>
-      <c r="O4" s="4" t="b">
+      <c r="O4" t="b">
         <v>1</v>
       </c>
-      <c r="P4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
         <v>4.0299999527629998E-3</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4">
         <v>90</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4">
         <v>12894</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="X4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>14065</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>19999</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5">
         <v>23736</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>2.4000000208616E-2</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5">
         <v>0.26859998703002902</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5">
         <v>7.4769906699656996E-2</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5">
         <v>1129.999995231628</v>
       </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>0.27599999308586098</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5">
         <v>1</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" t="s">
         <v>97</v>
       </c>
-      <c r="O5" s="4" t="b">
+      <c r="O5" t="b">
         <v>1</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5">
         <v>1.0744999647140501</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5">
         <v>0.29907959699630698</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5">
         <v>477.80001163482672</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5">
         <v>3.9300001226369998E-3</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5">
         <v>70</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5">
         <v>14065</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="W5" t="s">
         <v>13</v>
       </c>
-      <c r="X5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>14694</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>22097</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6">
         <v>13674</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6">
         <v>3.000000026077E-3</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6">
         <v>1.8768999576568599</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6">
         <v>0.34999999403953602</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6">
         <v>10.999999940395361</v>
       </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>0.104999996721745</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6">
         <v>1</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" t="s">
         <v>90</v>
       </c>
-      <c r="O6" s="4" t="b">
+      <c r="O6" t="b">
         <v>1</v>
       </c>
-      <c r="P6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>4.0299999527629998E-3</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6">
         <v>90</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6">
         <v>14694</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="W6" t="s">
         <v>13</v>
       </c>
-      <c r="X6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>16005</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>25593</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7">
         <v>25594</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7">
         <v>4.9999998882409996E-3</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7">
         <v>0.64099997282028198</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7">
         <v>8.4822997450828996E-2</v>
       </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>0.143999993801117</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7">
         <v>1</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" t="s">
         <v>97</v>
       </c>
-      <c r="O7" s="4" t="b">
+      <c r="O7" t="b">
         <v>1</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7">
         <v>2.5639998912811279</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7">
         <v>0.33929198980331399</v>
       </c>
-      <c r="R7" s="4">
-        <v>0</v>
-      </c>
-      <c r="S7" s="4">
-        <v>0</v>
-      </c>
-      <c r="T7" s="4">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>70</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7">
         <v>16005</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="W7" t="s">
         <v>13</v>
       </c>
-      <c r="X7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>19872</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <v>18541</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8">
         <v>29044</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
         <v>6.1999998986720997E-2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8">
         <v>0.64099997282028198</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8">
         <v>8.4822997450828996E-2</v>
       </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>0.143999993801117</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8">
         <v>1</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" t="s">
         <v>97</v>
       </c>
-      <c r="O8" s="4" t="b">
+      <c r="O8" t="b">
         <v>1</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8">
         <v>2.5639998912811279</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8">
         <v>0.33929198980331399</v>
       </c>
-      <c r="R8" s="4">
-        <v>0</v>
-      </c>
-      <c r="S8" s="4">
-        <v>0</v>
-      </c>
-      <c r="T8" s="4">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
         <v>70</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8">
         <v>19872</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="W8" t="s">
         <v>13</v>
       </c>
-      <c r="X8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="X8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>20275</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <v>17618</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9">
         <v>25593</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9">
         <v>8.9999996125699998E-3</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9">
         <v>0.64099997282028198</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9">
         <v>8.4822997450828996E-2</v>
       </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>0.143999993801117</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9">
         <v>1</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9">
         <v>1</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" t="s">
         <v>97</v>
       </c>
-      <c r="O9" s="4" t="b">
+      <c r="O9" t="b">
         <v>1</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9">
         <v>2.5639998912811279</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9">
         <v>0.33929198980331399</v>
       </c>
-      <c r="R9" s="4">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <v>70</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9">
         <v>20275</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="W9" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>20510</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10">
         <v>29044</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10">
         <v>29590</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10">
         <v>2.3000000044703001E-2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10">
         <v>0.44420000910759</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10">
         <v>8.2309722900391E-2</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10">
         <v>750</v>
       </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>0.17599999904632599</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10">
         <v>1</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" t="s">
         <v>97</v>
       </c>
-      <c r="O10" s="4" t="b">
+      <c r="O10" t="b">
         <v>1</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10">
         <v>1.776700019836426</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10">
         <v>0.329238891601562</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10">
         <v>312.40001320838928</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10">
         <v>4.0299999527629998E-3</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10">
         <v>70</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10">
         <v>20510</v>
       </c>
-      <c r="W10" s="4" t="s">
+      <c r="W10" t="s">
         <v>13</v>
       </c>
-      <c r="X10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>21466</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11">
         <v>22102</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11">
         <v>15385</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11">
         <v>3.000000026077E-3</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11">
         <v>1.8768999576568599</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11">
         <v>0.34999999403953602</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11">
         <v>10.999999940395361</v>
       </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>0.104999996721745</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11">
         <v>1</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" t="s">
         <v>90</v>
       </c>
-      <c r="O11" s="4" t="b">
+      <c r="O11" t="b">
         <v>1</v>
       </c>
-      <c r="P11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>0</v>
-      </c>
-      <c r="R11" s="4">
-        <v>0</v>
-      </c>
-      <c r="S11" s="4">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
         <v>4.0299999527629998E-3</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11">
         <v>90</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11">
         <v>21466</v>
       </c>
-      <c r="W11" s="4" t="s">
+      <c r="W11" t="s">
         <v>13</v>
       </c>
-      <c r="X11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="X11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>22699</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <v>23736</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12">
         <v>21819</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12">
         <v>4.9999998882409996E-3</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12">
         <v>0.32080000638961798</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12">
         <v>8.1995569169520999E-2</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12">
         <v>769.99998092651367</v>
       </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>0.210999995470047</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12">
         <v>1</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12">
         <v>1</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" t="s">
         <v>97</v>
       </c>
-      <c r="O12" s="4" t="b">
+      <c r="O12" t="b">
         <v>1</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12">
         <v>1.283300042152405</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12">
         <v>0.32798230648040799</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12">
         <v>349.20001029968262</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12">
         <v>4.0299999527629998E-3</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12">
         <v>70</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V12">
         <v>22699</v>
       </c>
-      <c r="W12" s="4" t="s">
+      <c r="W12" t="s">
         <v>13</v>
       </c>
-      <c r="X12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="X12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>22723</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13">
         <v>21819</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13">
         <v>19880</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13">
         <v>2.5000000372528999E-2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13">
         <v>0.64099997282028198</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13">
         <v>8.4822997450828996E-2</v>
       </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>0.143999993801117</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13">
         <v>1</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13">
         <v>1</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" t="s">
         <v>97</v>
       </c>
-      <c r="O13" s="4" t="b">
+      <c r="O13" t="b">
         <v>1</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13">
         <v>2.5639998912811279</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13">
         <v>0.33929198980331399</v>
       </c>
-      <c r="R13" s="4">
-        <v>0</v>
-      </c>
-      <c r="S13" s="4">
-        <v>0</v>
-      </c>
-      <c r="T13" s="4">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <v>70</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13">
         <v>22723</v>
       </c>
-      <c r="W13" s="4" t="s">
+      <c r="W13" t="s">
         <v>13</v>
       </c>
-      <c r="X13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="X13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>25188</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14">
         <v>22572</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14">
         <v>25594</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14">
         <v>1.3000000268221E-2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14">
         <v>0.32080000638961798</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14">
         <v>7.5398221611976998E-2</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14">
         <v>839.9999737739563</v>
       </c>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>0.20999999344348899</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14">
         <v>1</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14">
         <v>1</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" t="s">
         <v>97</v>
       </c>
-      <c r="O14" s="4" t="b">
+      <c r="O14" t="b">
         <v>1</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14">
         <v>1.283300042152405</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14">
         <v>0.30159288644790599</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14">
         <v>404.30000424385071</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14">
         <v>4.0299999527629998E-3</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14">
         <v>70</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14">
         <v>25188</v>
       </c>
-      <c r="W14" s="4" t="s">
+      <c r="W14" t="s">
         <v>13</v>
       </c>
-      <c r="X14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="X14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>25189</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15">
         <v>25594</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15">
         <v>29044</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15">
         <v>3.2999999821186003E-2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15">
         <v>0.32080000638961798</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15">
         <v>7.5398221611976998E-2</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15">
         <v>839.9999737739563</v>
       </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>0.20999999344348899</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15">
         <v>1</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15">
         <v>1</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" t="s">
         <v>97</v>
       </c>
-      <c r="O15" s="4" t="b">
+      <c r="O15" t="b">
         <v>1</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15">
         <v>1.283300042152405</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15">
         <v>0.30159288644790599</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15">
         <v>404.30000424385071</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15">
         <v>4.0299999527629998E-3</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15">
         <v>70</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15">
         <v>25189</v>
       </c>
-      <c r="W15" s="4" t="s">
+      <c r="W15" t="s">
         <v>13</v>
       </c>
-      <c r="X15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="X15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>29617</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16">
         <v>21819</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16">
         <v>33266</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16">
         <v>4.0000001899900004E-3</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16">
         <v>0.16500000655651101</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16">
         <v>8.0424778163433006E-2</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16">
         <v>829.99998331069946</v>
       </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>0.307000011205673</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16">
         <v>1</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16">
         <v>1</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" t="s">
         <v>97</v>
       </c>
-      <c r="O16" s="4" t="b">
+      <c r="O16" t="b">
         <v>1</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16">
         <v>0.66000002622604403</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16">
         <v>0.32169911265373202</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16">
         <v>385.89999079704279</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16">
         <v>4.0299999527629998E-3</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16">
         <v>70</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V16">
         <v>29617</v>
       </c>
-      <c r="W16" s="4" t="s">
+      <c r="W16" t="s">
         <v>13</v>
       </c>
-      <c r="X16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="X16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>32152</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17">
         <v>21819</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17">
         <v>25805</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17">
         <v>3.000000026077E-3</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17">
         <v>0.20669999718666099</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17">
         <v>8.0424778163433006E-2</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17">
         <v>829.99998331069946</v>
       </c>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>0.270000010728836</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17">
         <v>1</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17">
         <v>1</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="N17" t="s">
         <v>97</v>
       </c>
-      <c r="O17" s="4" t="b">
+      <c r="O17" t="b">
         <v>1</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17">
         <v>0.82669997215270996</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17">
         <v>0.32169911265373202</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17">
         <v>385.89999079704279</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17">
         <v>4.0299999527629998E-3</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17">
         <v>70</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V17">
         <v>32152</v>
       </c>
-      <c r="W17" s="4" t="s">
+      <c r="W17" t="s">
         <v>13</v>
       </c>
-      <c r="X17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="X17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>32153</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18">
         <v>25805</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18">
         <v>22548</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18">
         <v>4.9999998882409996E-3</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18">
         <v>0.20669999718666099</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18">
         <v>8.0424778163433006E-2</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18">
         <v>829.99998331069946</v>
       </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>0.270000010728836</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18">
         <v>1</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18">
         <v>1</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" t="s">
         <v>97</v>
       </c>
-      <c r="O18" s="4" t="b">
+      <c r="O18" t="b">
         <v>1</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18">
         <v>0.82669997215270996</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18">
         <v>0.32169911265373202</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18">
         <v>385.89999079704279</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18">
         <v>4.0299999527629998E-3</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18">
         <v>70</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V18">
         <v>32153</v>
       </c>
-      <c r="W18" s="4" t="s">
+      <c r="W18" t="s">
         <v>13</v>
       </c>
-      <c r="X18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>33964</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19">
         <v>33266</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19">
         <v>22402</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19">
         <v>1E-3</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19">
         <v>1E-4</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19">
         <v>1E-4</v>
       </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>1</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19">
         <v>1</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19">
         <v>1</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="N19" t="s">
         <v>97</v>
       </c>
-      <c r="O19" s="4" t="b">
+      <c r="O19" t="b">
         <v>1</v>
       </c>
-      <c r="P19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>0</v>
-      </c>
-      <c r="R19" s="4">
-        <v>0</v>
-      </c>
-      <c r="S19" s="4">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
         <v>4.0299999527629998E-3</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19">
         <v>80</v>
       </c>
-      <c r="V19" s="4">
+      <c r="V19">
         <v>33964</v>
       </c>
-      <c r="W19" s="4" t="s">
+      <c r="W19" t="s">
         <v>13</v>
       </c>
-      <c r="X19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-    </row>
-    <row r="33" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-    </row>
-    <row r="35" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-    </row>
-    <row r="36" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-    </row>
-    <row r="37" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-    </row>
-    <row r="38" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-    </row>
-    <row r="39" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-    </row>
-    <row r="40" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-    </row>
-    <row r="41" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-    </row>
-    <row r="42" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-    </row>
-    <row r="43" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-    </row>
-    <row r="44" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-    </row>
-    <row r="45" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-    </row>
-    <row r="46" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-    </row>
-    <row r="47" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-    </row>
-    <row r="48" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-    </row>
-    <row r="49" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-    </row>
-    <row r="50" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-    </row>
-    <row r="51" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-    </row>
-    <row r="52" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-    </row>
-    <row r="53" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-    </row>
-    <row r="54" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-    </row>
-    <row r="55" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-    </row>
-    <row r="56" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-    </row>
-    <row r="57" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-    </row>
-    <row r="58" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-    </row>
-    <row r="59" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-    </row>
-    <row r="60" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-    </row>
-    <row r="61" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-    </row>
-    <row r="62" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-    </row>
-    <row r="63" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-    </row>
-    <row r="64" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-    </row>
-    <row r="65" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-    </row>
-    <row r="66" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-    </row>
-    <row r="67" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-    </row>
-    <row r="68" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-    </row>
-    <row r="69" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-    </row>
-    <row r="70" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-    </row>
-    <row r="71" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-    </row>
-    <row r="72" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-    </row>
-    <row r="73" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-    </row>
-    <row r="74" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-    </row>
-    <row r="75" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-    </row>
-    <row r="76" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-    </row>
-    <row r="77" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-    </row>
-    <row r="78" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-    </row>
-    <row r="79" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-    </row>
-    <row r="80" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-    </row>
-    <row r="81" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-    </row>
-    <row r="82" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-    </row>
-    <row r="83" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-    </row>
-    <row r="84" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-    </row>
-    <row r="85" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-    </row>
-    <row r="86" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-    </row>
-    <row r="87" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-    </row>
-    <row r="88" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-    </row>
-    <row r="89" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
+      <c r="X19">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19020,9 +18404,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19117,7 +18501,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>139</v>
       </c>
@@ -19204,9 +18588,9 @@
       <selection activeCell="L16" sqref="L16:U30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>149</v>
       </c>
@@ -19262,157 +18646,157 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>12841</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>12846</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>12865</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>12866</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>12867</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>12870</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>12893</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>12894</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>12895</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>12943</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>14065</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>14199</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>14694</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>15765</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15841</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16005</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16219</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18196</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19326</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19872</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20275</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>20510</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>21466</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>22699</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>22723</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25188</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>25189</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>29617</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>32152</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>32153</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>33964</v>
       </c>
@@ -19430,9 +18814,9 @@
       <selection activeCell="B2" sqref="B2:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>167</v>
       </c>
@@ -19443,167 +18827,167 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>22401</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>22402</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>22548</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>22549</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>29590</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>15385</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>19999</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>22562</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>19880</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>22056</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>22572</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>22573</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>23736</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>21819</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14276</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>22092</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>25805</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>22097</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>17618</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>22102</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20571</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22109</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>17379</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>13674</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>17645</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>18541</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>20593</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>33266</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>15603</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29044</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>25593</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>25594</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>17531</v>
       </c>

--- a/examples/create_scenario_with_grid/scenario_with_grid/electricity.xlsx
+++ b/examples/create_scenario_with_grid/scenario_with_grid/electricity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chujiahe/PycharmProjects/HAMLET/examples/create_scenario_with_grid/scenario_with_grid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F72DFFF-BE5C-664B-AE9B-5230E5C56C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10328741-3CAC-EC4F-BA3E-3D0284F81417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="21060" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="21060" windowHeight="17380" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="506">
   <si>
     <t>name</t>
   </si>
@@ -1955,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17036,10 +17036,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22:M89"/>
+    <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18390,6 +18390,77 @@
         <v>13</v>
       </c>
       <c r="X19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>33965</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20">
+        <v>21819</v>
+      </c>
+      <c r="E20">
+        <v>29590</v>
+      </c>
+      <c r="F20">
+        <v>4.9999998882409996E-3</v>
+      </c>
+      <c r="G20">
+        <v>0.20669999718666099</v>
+      </c>
+      <c r="H20">
+        <v>8.0424778163433006E-2</v>
+      </c>
+      <c r="I20">
+        <v>829.99998331069946</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0.270000010728836</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>97</v>
+      </c>
+      <c r="O20" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>0.82669997215270996</v>
+      </c>
+      <c r="Q20">
+        <v>0.32169911265373202</v>
+      </c>
+      <c r="R20">
+        <v>385.89999079704279</v>
+      </c>
+      <c r="S20">
+        <v>4.0299999527629998E-3</v>
+      </c>
+      <c r="T20">
+        <v>70</v>
+      </c>
+      <c r="V20">
+        <v>32153</v>
+      </c>
+      <c r="W20" t="s">
+        <v>13</v>
+      </c>
+      <c r="X20">
         <v>0</v>
       </c>
     </row>
